--- a/biology/Zoologie/Gelanor_altithorax/Gelanor_altithorax.xlsx
+++ b/biology/Zoologie/Gelanor_altithorax/Gelanor_altithorax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gelanor altithorax est une espèce d'araignées aranéomorphes de la famille des Mimetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gelanor altithorax est une espèce d'araignées aranéomorphes de la famille des Mimetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Brésil dans les États de Rio de Janeiro, de São Paulo, du Paraná, de Santa Catarina et du Rio Grande do Sul et en Argentine dans la province de Misiones[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Brésil dans les États de Rio de Janeiro, de São Paulo, du Paraná, de Santa Catarina et du Rio Grande do Sul et en Argentine dans la province de Misiones,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Benavides et Hormiga en 2016 mesure 4,47 mm et la femelle 4,56 mm[3].
-Les mâles mesurent de 4,47 à 4,55 mm et les femelles de 4,56 à 5,05 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Benavides et Hormiga en 2016 mesure 4,47 mm et la femelle 4,56 mm.
+Les mâles mesurent de 4,47 à 4,55 mm et les femelles de 4,56 à 5,05 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Keyserling, 1893 : Die Spinnen Amerikas. Epeiridae. Nürnberg, vol. 4, p. 209-377.</t>
         </is>
